--- a/Paper/Tables/Review-Summary.xlsx
+++ b/Paper/Tables/Review-Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enric\Desktop\Paper Taxometrics Neurodevelopmental\__GITHUB\Paper\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8668D00-EB9E-4180-9816-7A0F47579B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993BE151-56BF-416F-A78B-54D908D0F86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="withID" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="104">
   <si>
     <t>ID_article</t>
   </si>
@@ -357,12 +357,28 @@
   <si>
     <t>1</t>
   </si>
+  <si>
+    <r>
+      <t>Fit</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>d</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -419,6 +435,29 @@
     <font>
       <i/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -626,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -720,6 +759,84 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1399,7 +1516,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="14" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="14" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>8</v>
       </c>
@@ -1770,732 +1887,731 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A5E341-2F1F-40E8-9C85-1DCD32C639AC}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O15" sqref="A1:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="8.08984375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="10" style="12" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" style="18" customWidth="1"/>
     <col min="7" max="7" width="9.1796875" style="12" customWidth="1"/>
     <col min="8" max="8" width="7.36328125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="9.90625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="8.6328125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" style="12" customWidth="1"/>
-    <col min="14" max="14" width="8.90625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="9.08984375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" style="12" customWidth="1"/>
+    <col min="11" max="11" width="7" style="12" customWidth="1"/>
+    <col min="12" max="12" width="7.6328125" style="12" customWidth="1"/>
+    <col min="13" max="14" width="8.36328125" style="12" customWidth="1"/>
+    <col min="15" max="15" width="8.26953125" style="12" customWidth="1"/>
     <col min="16" max="16384" width="12.6328125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="36" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="13" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:15" s="13" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="39">
         <v>6</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="30" t="s">
+      <c r="M2" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="40" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="14" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:15" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="43">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="31" t="s">
+      <c r="M3" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="44" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="13" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:15" s="13" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="47">
         <v>2</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="K4" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="32" t="s">
+      <c r="N4" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="50" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="14" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:15" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="43">
         <v>22</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="K5" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="31" t="s">
+      <c r="N5" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="13" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:15" s="13" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="47">
         <v>15</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="32" t="s">
+      <c r="N6" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="50" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="14" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:15" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="52">
         <v>7</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="33" t="s">
+      <c r="M7" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="55" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="13" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="47">
         <v>4</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="47">
         <v>3</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" s="32" t="s">
+      <c r="M8" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="50" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="14" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:15" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="13" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="M9" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="47">
         <v>1139</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="47">
         <v>1</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="47">
         <v>8</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="O10" s="32" t="s">
+      <c r="O10" s="50" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="14" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:15" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="52">
         <v>456</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="52">
         <v>1</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="52">
         <v>4</v>
       </c>
-      <c r="M11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="O11" s="33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="13" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="M11" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="13" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="47">
         <v>2</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="47">
         <v>3</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" s="32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="14" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="M12" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="43">
         <v>10</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="O13" s="31" t="s">
+      <c r="O13" s="44" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="13" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+    <row r="14" spans="1:15" s="13" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="47">
         <v>2</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="47">
         <v>2</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="32" t="s">
+      <c r="M14" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="50" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="14" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+    <row r="15" spans="1:15" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A15" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="59">
         <v>601</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="59">
         <v>1</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="59">
         <v>2</v>
       </c>
-      <c r="M15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O15" s="34" t="s">
+      <c r="M15" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="60" t="s">
         <v>76</v>
       </c>
     </row>

--- a/Paper/Tables/Review-Summary.xlsx
+++ b/Paper/Tables/Review-Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enric\Desktop\Paper Taxometrics Neurodevelopmental\__GITHUB\Paper\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDEAE7C-BA91-45C1-9176-482F40B90B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CAB83C-9DD7-4F73-9743-262BF66B72D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33900" yWindow="60" windowWidth="18870" windowHeight="11205" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="withID" sheetId="1" r:id="rId1"/>
@@ -144,9 +144,6 @@
     <t>Taxometric methods</t>
   </si>
   <si>
-    <t>Target disorder</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -389,6 +386,9 @@
   </si>
   <si>
     <t>likely yes</t>
+  </si>
+  <si>
+    <t>Target condition</t>
   </si>
 </sst>
 </file>
@@ -664,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -753,44 +753,40 @@
     <xf numFmtId="49" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1098,9 +1094,9 @@
   </sheetPr>
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1124,7 +1120,7 @@
     <col min="17" max="16384" width="12.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="35" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -1132,19 +1128,19 @@
         <v>8</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H1" s="34" t="s">
         <v>31</v>
@@ -1159,719 +1155,719 @@
         <v>35</v>
       </c>
       <c r="L1" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="23" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="B2" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="37">
+        <v>6</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="23" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="46">
+        <v>2</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="23" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="37">
+        <v>22</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="23" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="46">
+        <v>15</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="23" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="37">
+        <v>2</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="37">
+        <v>3</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="46">
+        <v>4</v>
+      </c>
+      <c r="K7" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="46">
+        <v>3</v>
+      </c>
+      <c r="N7" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="23" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="37">
+        <v>10</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="37">
+        <v>1139</v>
+      </c>
+      <c r="J10" s="37">
+        <v>1</v>
+      </c>
+      <c r="K10" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="37">
+        <v>8</v>
+      </c>
+      <c r="N10" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="23" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="48">
+        <v>456</v>
+      </c>
+      <c r="J11" s="48">
+        <v>1</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="48">
+        <v>4</v>
+      </c>
+      <c r="N11" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="23" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="40">
+        <v>7</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="P1" s="34" t="s">
+      <c r="N12" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="23" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="56">
+        <v>6</v>
+      </c>
+      <c r="K13" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="57" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="35" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" s="39" t="s">
+    <row r="14" spans="1:16" ht="23" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="39">
-        <v>6</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="39" t="s">
+      <c r="H14" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="37">
+        <v>2</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="37">
+        <v>2</v>
+      </c>
+      <c r="N14" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="23" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="60">
+        <v>601</v>
+      </c>
+      <c r="J15" s="60">
         <v>1</v>
       </c>
-      <c r="M2" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="35" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="48">
+      <c r="K15" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" s="60">
         <v>2</v>
       </c>
-      <c r="K3" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="M3" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="35" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="39">
-        <v>22</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="M4" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="35" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="48">
-        <v>15</v>
-      </c>
-      <c r="K5" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" s="51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="35" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="39">
-        <v>2</v>
-      </c>
-      <c r="K6" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="39">
-        <v>3</v>
-      </c>
-      <c r="N6" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="35" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="48">
-        <v>4</v>
-      </c>
-      <c r="K7" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="48">
-        <v>3</v>
-      </c>
-      <c r="N7" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="35" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="39">
-        <v>10</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="L8" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="N8" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="O8" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="P8" s="40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="35" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="N9" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" s="51" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="35" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="39">
-        <v>1139</v>
-      </c>
-      <c r="J10" s="39">
-        <v>1</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="L10" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M10" s="39">
-        <v>8</v>
-      </c>
-      <c r="N10" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="O10" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="P10" s="40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="35" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="50">
-        <v>456</v>
-      </c>
-      <c r="J11" s="50">
-        <v>1</v>
-      </c>
-      <c r="K11" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="50">
-        <v>4</v>
-      </c>
-      <c r="N11" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="O11" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="P11" s="55" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="35" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="42">
-        <v>7</v>
-      </c>
-      <c r="K12" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="L12" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="N12" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="35" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="58">
-        <v>6</v>
-      </c>
-      <c r="K13" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="L13" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="M13" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="N13" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="P13" s="59" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="35" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="39">
-        <v>2</v>
-      </c>
-      <c r="K14" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="M14" s="39">
-        <v>2</v>
-      </c>
-      <c r="N14" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="P14" s="40" t="s">
+      <c r="N15" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="61" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="35" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="62">
-        <v>601</v>
-      </c>
-      <c r="J15" s="62">
-        <v>1</v>
-      </c>
-      <c r="K15" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="M15" s="62">
-        <v>2</v>
-      </c>
-      <c r="N15" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="O15" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="P15" s="63" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1895,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A5E341-2F1F-40E8-9C85-1DCD32C639AC}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1923,19 +1919,19 @@
         <v>8</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>31</v>
@@ -1950,19 +1946,19 @@
         <v>35</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1973,13 +1969,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>32</v>
@@ -1988,28 +1984,28 @@
         <v>33</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" s="10">
         <v>6</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="3" customFormat="1" ht="20" x14ac:dyDescent="0.25">
@@ -2020,13 +2016,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>32</v>
@@ -2035,28 +2031,28 @@
         <v>32</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" s="14">
         <v>2</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
@@ -2067,13 +2063,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>32</v>
@@ -2082,28 +2078,28 @@
         <v>32</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" s="18">
         <v>22</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="20" x14ac:dyDescent="0.25">
@@ -2114,13 +2110,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>32</v>
@@ -2129,28 +2125,28 @@
         <v>32</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" s="14">
         <v>15</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>1</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2161,13 +2157,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>33</v>
@@ -2176,13 +2172,13 @@
         <v>34</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" s="18">
         <v>2</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K6" s="18" t="s">
         <v>1</v>
@@ -2191,13 +2187,13 @@
         <v>3</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2205,31 +2201,31 @@
         <v>15</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" s="23">
         <v>4</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K7" s="23" t="s">
         <v>1</v>
@@ -2238,13 +2234,13 @@
         <v>3</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O7" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2255,13 +2251,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>33</v>
@@ -2270,28 +2266,28 @@
         <v>33</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I8" s="18">
         <v>10</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K8" s="18" t="s">
         <v>1</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2302,13 +2298,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>33</v>
@@ -2317,28 +2313,28 @@
         <v>34</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K9" s="14" t="s">
         <v>1</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2349,13 +2345,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>33</v>
@@ -2370,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K10" s="18" t="s">
         <v>1</v>
@@ -2379,13 +2375,13 @@
         <v>8</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="3" customFormat="1" ht="20" x14ac:dyDescent="0.25">
@@ -2396,13 +2392,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>33</v>
@@ -2420,19 +2416,19 @@
         <v>6</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L11" s="23">
         <v>4</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O11" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
@@ -2443,13 +2439,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>34</v>
@@ -2458,28 +2454,28 @@
         <v>32</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12" s="18">
         <v>7</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K12" s="18" t="s">
         <v>1</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="3" customFormat="1" ht="20" x14ac:dyDescent="0.25">
@@ -2490,43 +2486,43 @@
         <v>2</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>34</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I13" s="14">
         <v>6</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>1</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
@@ -2537,13 +2533,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>32</v>
@@ -2552,7 +2548,7 @@
         <v>32</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I14" s="18">
         <v>2</v>
@@ -2561,19 +2557,19 @@
         <v>4</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L14" s="18">
         <v>2</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="3" customFormat="1" ht="20" x14ac:dyDescent="0.25">
@@ -2584,13 +2580,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" s="30" t="s">
         <v>32</v>
@@ -2608,19 +2604,19 @@
         <v>4</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L15" s="30">
         <v>2</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O15" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
